--- a/codespaces/Contencioso/relatorio_risco_estruturado.xlsx
+++ b/codespaces/Contencioso/relatorio_risco_estruturado.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\propulsor-intelligence\codespaces\Contencioso\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC406FC-0D23-40F8-A989-853A920C32AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -88,8 +94,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +108,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -138,27 +154,92 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{3AD24CCF-6DEB-4870-9BCB-C42C40C94CEC}"/>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>868680</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>388214</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>7713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C066ED4-0AED-0D50-C113-ED4CB4784427}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8961120" y="0"/>
+          <a:ext cx="12900254" cy="18661473"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -196,7 +277,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -230,6 +311,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -264,9 +346,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -439,14 +522,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,23 +549,23 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -482,23 +575,23 @@
       <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>3707573.81</v>
       </c>
-      <c r="E2">
-        <v>7976725.69</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="E2" s="3">
+        <v>7976725.6900000004</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
         <v>176634.92</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>11860934.42</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -508,23 +601,23 @@
       <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3">
-        <v>290.9</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="3">
+        <v>290.89999999999998</v>
+      </c>
+      <c r="E3" s="3">
         <v>1598665.54</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
         <v>1598956.44</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -534,23 +627,23 @@
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>166340133.81</v>
       </c>
-      <c r="E4">
-        <v>82224347.28999999</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>26881971.03</v>
-      </c>
-      <c r="H4">
+      <c r="E4" s="3">
+        <v>82224347.289999992</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>26881971.030000001</v>
+      </c>
+      <c r="H4" s="3">
         <v>275446452.13</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -560,23 +653,23 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>1297008.45</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>136985.21</v>
       </c>
-      <c r="F5">
-        <v>15058607.11</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="F5" s="3">
+        <v>15058607.109999999</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
         <v>16492600.77</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -586,23 +679,23 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>3625425.22</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>3457637.65</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>33086693.8</v>
-      </c>
-      <c r="H6">
-        <v>40169756.67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>33086693.800000001</v>
+      </c>
+      <c r="H6" s="3">
+        <v>40169756.670000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -612,23 +705,23 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>2362481.16</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>2006572.83</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>2222361.1</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>6591415.09</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6591415.0899999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -638,23 +731,23 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>1990.86</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>1900952.1</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>1902942.96</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -664,23 +757,23 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>10898.12</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>531812</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>4000</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>546710.12</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -690,23 +783,23 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D10">
-        <v>693327.6900000001</v>
-      </c>
-      <c r="E10">
-        <v>2222415.03</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="D10" s="3">
+        <v>693327.69000000006</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2222415.0299999998</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>184000</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>3099742.72</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -716,23 +809,23 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
         <v>1849266.71</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>2540</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
         <v>1851806.71</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -742,23 +835,23 @@
       <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>100378.95</v>
       </c>
-      <c r="E12">
-        <v>135160.2</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
+      <c r="E12" s="3">
+        <v>135160.20000000001</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>235539.15</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -768,23 +861,23 @@
       <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>113058278.08</v>
       </c>
-      <c r="E13">
-        <v>46287907.16</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>87347801.96000001</v>
-      </c>
-      <c r="H13">
-        <v>246693987.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="E13" s="3">
+        <v>46287907.159999996</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>87347801.960000008</v>
+      </c>
+      <c r="H13" s="3">
+        <v>246693987.19999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -794,23 +887,23 @@
       <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="D14">
-        <v>1287692.61</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="3">
+        <v>1287692.6100000001</v>
+      </c>
+      <c r="E14" s="3">
         <v>13340231.67</v>
       </c>
-      <c r="F14">
-        <v>19425400.87</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>34053325.15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="F14" s="3">
+        <v>19425400.870000001</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>34053325.149999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -820,23 +913,23 @@
       <c r="C15" t="s">
         <v>21</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
         <v>113723.96</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
         <v>113723.96</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -846,23 +939,23 @@
       <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>154703.7</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>154703.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>154703.70000000001</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>154703.70000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -872,23 +965,23 @@
       <c r="C17" t="s">
         <v>21</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>41266.31</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>41266.31</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -898,23 +991,23 @@
       <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="D18">
-        <v>4527594.9</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="D18" s="3">
+        <v>4527594.9000000004</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>42256.87</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4569851.77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4569851.7699999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -924,23 +1017,23 @@
       <c r="C19" t="s">
         <v>21</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>54949.99</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
         <v>54949.99</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -950,23 +1043,23 @@
       <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>1500385.02</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>83129.48</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>1583514.5</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -976,23 +1069,23 @@
       <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>3461345.78</v>
       </c>
-      <c r="E21">
-        <v>328537.34</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
+      <c r="E21" s="3">
+        <v>328537.34000000003</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>3789883.12</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1002,23 +1095,23 @@
       <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>100000</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1028,23 +1121,23 @@
       <c r="C23" t="s">
         <v>22</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>435340.04</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>10000</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>445340.04</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1054,23 +1147,23 @@
       <c r="C24" t="s">
         <v>21</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>3751.04</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>3751.04</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1080,23 +1173,23 @@
       <c r="C25" t="s">
         <v>22</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1106,23 +1199,23 @@
       <c r="C26" t="s">
         <v>21</v>
       </c>
-      <c r="D26">
-        <v>6511075.02</v>
-      </c>
-      <c r="E26">
-        <v>253027905.05</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>259538980.07</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="D26" s="3">
+        <v>6511075.0199999996</v>
+      </c>
+      <c r="E26" s="3">
+        <v>253027905.05000001</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>259538980.06999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1132,23 +1225,23 @@
       <c r="C27" t="s">
         <v>22</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>122724685.61</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>204425092.87</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>327149778.48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>327149778.48000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1158,23 +1251,23 @@
       <c r="C28" t="s">
         <v>21</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>15327555.67</v>
       </c>
-      <c r="E28">
-        <v>180813206.3</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
+      <c r="E28" s="3">
+        <v>180813206.30000001</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
         <v>72485</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="3">
         <v>196213246.97</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1184,23 +1277,23 @@
       <c r="C29" t="s">
         <v>22</v>
       </c>
-      <c r="D29">
-        <v>82325.24000000001</v>
-      </c>
-      <c r="E29">
-        <v>339029279.84</v>
-      </c>
-      <c r="F29">
+      <c r="D29" s="3">
+        <v>82325.240000000005</v>
+      </c>
+      <c r="E29" s="3">
+        <v>339029279.83999997</v>
+      </c>
+      <c r="F29" s="3">
         <v>145465404.09</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>484577009.17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>484577009.17000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1210,23 +1303,23 @@
       <c r="C30" t="s">
         <v>21</v>
       </c>
-      <c r="D30">
-        <v>28679491.36</v>
-      </c>
-      <c r="E30">
-        <v>6902467.609999999</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>35581958.97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="D30" s="3">
+        <v>28679491.359999999</v>
+      </c>
+      <c r="E30" s="3">
+        <v>6902467.6099999994</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>35581958.969999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1236,23 +1329,23 @@
       <c r="C31" t="s">
         <v>22</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>196202.75</v>
       </c>
-      <c r="E31">
-        <v>8945453.23</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>9141655.98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="E31" s="3">
+        <v>8945453.2300000004</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>9141655.9800000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1262,23 +1355,23 @@
       <c r="C32" t="s">
         <v>21</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>746046.6</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>1001237.1</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>1747283.7</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1288,23 +1381,23 @@
       <c r="C33" t="s">
         <v>22</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>1486615.68</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>1486615.68</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1314,23 +1407,23 @@
       <c r="C34" t="s">
         <v>21</v>
       </c>
-      <c r="D34">
-        <v>634130.5800000001</v>
-      </c>
-      <c r="E34">
-        <v>311855.46</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
+      <c r="D34" s="3">
+        <v>634130.58000000007</v>
+      </c>
+      <c r="E34" s="3">
+        <v>311855.46000000002</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
         <v>500000</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="3">
         <v>1445986.04</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1340,23 +1433,23 @@
       <c r="C35" t="s">
         <v>22</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1366,23 +1459,23 @@
       <c r="C36" t="s">
         <v>21</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>847629.73</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <v>793400</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
         <v>1641029.73</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1392,23 +1485,24 @@
       <c r="C37" t="s">
         <v>22</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>